--- a/5-frequency-tables/5-frequency-tables.xlsx
+++ b/5-frequency-tables/5-frequency-tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE8F885-2A1F-4763-806D-18DE0D42F122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863ED09-D4E5-4ED2-9E6D-D50E9372C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,47 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,6 +86,11 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>housing_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -638,6 +680,282 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="12">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">stories</v>
+    <v t="s">...</v>
+    <v t="s">fullbase</v>
+    <v t="s">gashw</v>
+    <v t="s">airco</v>
+    <v t="s">garagepl</v>
+    <v t="s">prefarea</v>
+    <v>0</v>
+    <v>42000</v>
+    <v>5850</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">yes</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>38500</v>
+    <v>4000</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>2</v>
+    <v>49500</v>
+    <v>3060</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>3</v>
+    <v>60500</v>
+    <v>6650</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>4</v>
+    <v>61000</v>
+    <v>6360</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>541</v>
+    <v>91500</v>
+    <v>4800</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>542</v>
+    <v>94000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>543</v>
+    <v>103000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>544</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>545</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      price  lotsize  bedrooms  bathrms  stories driveway recroom fullbase  \
+0     42000     5850         3        1        2      yes      no      yes   
+1     38500     4000         2        1        1      yes      no       no   
+2     49500     30...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>546</v>
+      <v>12</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF62E9B-4586-4FDB-95C8-6984FECC70F4}" name="housing" displayName="housing" ref="A1:L547" totalsRowShown="0">
   <autoFilter ref="A1:L547" xr:uid="{EDF62E9B-4586-4FDB-95C8-6984FECC70F4}"/>
@@ -976,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
-  <dimension ref="A1:L547"/>
+  <dimension ref="A1:N547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -988,9 +1306,10 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1346,12 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N1" t="e" cm="1" vm="1">
+        <f t="array" ref="N1">_xlfn._xlws.PY(0,1,housing[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>42000</v>
       </c>
@@ -1066,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>38500</v>
       </c>
@@ -1104,7 +1427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>49500</v>
       </c>
@@ -1142,7 +1465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>60500</v>
       </c>
@@ -1180,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>61000</v>
       </c>
@@ -1218,7 +1541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>66000</v>
       </c>
@@ -1256,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>66000</v>
       </c>
@@ -1294,7 +1617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>69000</v>
       </c>
@@ -1332,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>83800</v>
       </c>
@@ -1370,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>88500</v>
       </c>
@@ -1408,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -1446,7 +1769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>30500</v>
       </c>
@@ -1484,7 +1807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>27000</v>
       </c>
@@ -1522,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>36000</v>
       </c>
@@ -1560,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>37000</v>
       </c>
@@ -21785,6 +22108,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22027,27 +22370,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22064,23 +22406,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/5-frequency-tables/5-frequency-tables.xlsx
+++ b/5-frequency-tables/5-frequency-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863ED09-D4E5-4ED2-9E6D-D50E9372C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19871150-D7EB-4226-946E-BDB166CFA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
@@ -89,6 +89,21 @@
   <pythonScripts>
     <pythonScript>
       <code>housing_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>housing_df['stories'].value_counts()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>housing_df['stories'].value_counts(normalize=True).sort_values(ascending=False)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>price_bins = [0, 40000, 70000, 100000, 150000, float('inf')]
+price_labels = ['Low', 'Moderate', 'Mid-High', 'High', 'Luxury']
+housing_df['price_range'] = pd.cut(housing_df['price'], bins=price_bins, labels=price_labels)
+housing_df['price_range'].value_counts()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>pd.crosstab(housing_df['stories'], housing_df['driveway'], normalize='all', margins=True)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -576,7 +591,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -619,11 +634,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -663,6 +681,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1294,22 +1313,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
-  <dimension ref="A1:N547"/>
+  <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" customWidth="1"/>
+    <col min="14" max="14" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A2">
         <v>42000</v>
       </c>
@@ -1389,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A3">
         <v>38500</v>
       </c>
@@ -1426,8 +1445,15 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3:O7">_xlfn._xlws.PY(1,0)</f>
+        <v>stories</v>
+      </c>
+      <c r="O3" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A4">
         <v>49500</v>
       </c>
@@ -1464,8 +1490,14 @@
       <c r="L4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A5">
         <v>60500</v>
       </c>
@@ -1502,8 +1534,14 @@
       <c r="L5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A6">
         <v>61000</v>
       </c>
@@ -1540,8 +1578,14 @@
       <c r="L6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A7">
         <v>66000</v>
       </c>
@@ -1578,8 +1622,14 @@
       <c r="L7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A8">
         <v>66000</v>
       </c>
@@ -1617,7 +1667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A9">
         <v>69000</v>
       </c>
@@ -1654,8 +1704,15 @@
       <c r="L9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9:O13">_xlfn._xlws.PY(2,0)</f>
+        <v>stories</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <v>proportion</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A10">
         <v>83800</v>
       </c>
@@ -1692,8 +1749,14 @@
       <c r="L10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A11">
         <v>88500</v>
       </c>
@@ -1730,8 +1793,14 @@
       <c r="L11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.41575091575091577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -1768,8 +1837,14 @@
       <c r="L12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A13">
         <v>30500</v>
       </c>
@@ -1806,8 +1881,14 @@
       <c r="L13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A14">
         <v>27000</v>
       </c>
@@ -1845,7 +1926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A15">
         <v>36000</v>
       </c>
@@ -1882,8 +1963,15 @@
       <c r="L15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15:O20">_xlfn._xlws.PY(3,0)</f>
+        <v>price_range</v>
+      </c>
+      <c r="O15" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A16">
         <v>37000</v>
       </c>
@@ -1920,8 +2008,14 @@
       <c r="L16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N16" t="str">
+        <v>Moderate</v>
+      </c>
+      <c r="O16">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A17">
         <v>37900</v>
       </c>
@@ -1958,8 +2052,14 @@
       <c r="L17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N17" t="str">
+        <v>Mid-High</v>
+      </c>
+      <c r="O17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A18">
         <v>40500</v>
       </c>
@@ -1996,8 +2096,14 @@
       <c r="L18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N18" t="str">
+        <v>High</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A19">
         <v>40750</v>
       </c>
@@ -2034,8 +2140,14 @@
       <c r="L19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N19" t="str">
+        <v>Low</v>
+      </c>
+      <c r="O19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A20">
         <v>45000</v>
       </c>
@@ -2072,8 +2184,14 @@
       <c r="L20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N20" t="str">
+        <v>Luxury</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A21">
         <v>45000</v>
       </c>
@@ -2111,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A22">
         <v>48500</v>
       </c>
@@ -2148,8 +2266,21 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N22" t="str" cm="1">
+        <f t="array" ref="N22:Q28">_xlfn._xlws.PY(4,0)</f>
+        <v>driveway</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <v>no</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <v>yes</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <v>All</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A23">
         <v>65900</v>
       </c>
@@ -2186,8 +2317,20 @@
       <c r="L23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N23" t="str">
+        <v>stories</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P23" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A24">
         <v>37900</v>
       </c>
@@ -2224,8 +2367,20 @@
       <c r="L24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>6.7765567765567761E-2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.34798534798534797</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.41575091575091577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A25">
         <v>38000</v>
       </c>
@@ -2262,8 +2417,20 @@
       <c r="L25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.36630036630036628</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A26">
         <v>42000</v>
       </c>
@@ -2300,8 +2467,20 @@
       <c r="L26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3.663003663003663E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A27">
         <v>42300</v>
       </c>
@@ -2338,8 +2517,20 @@
       <c r="L27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>7.5091575091575088E-2</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>7.5091575091575088E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A28">
         <v>43500</v>
       </c>
@@ -2376,8 +2567,20 @@
       <c r="L28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N28" t="str">
+        <v>All</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.85897435897435892</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A29">
         <v>44000</v>
       </c>
@@ -2415,7 +2618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A30">
         <v>44500</v>
       </c>
@@ -2453,7 +2656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A31">
         <v>44900</v>
       </c>
@@ -2491,7 +2694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A32">
         <v>45000</v>
       </c>
@@ -2529,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A33">
         <v>48000</v>
       </c>
@@ -2567,7 +2770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A34">
         <v>49000</v>
       </c>
@@ -2605,7 +2808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A35">
         <v>51500</v>
       </c>
@@ -2643,7 +2846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A36">
         <v>61000</v>
       </c>
@@ -2681,7 +2884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A37">
         <v>61000</v>
       </c>
@@ -2719,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A38">
         <v>61700</v>
       </c>
@@ -2757,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A39">
         <v>67000</v>
       </c>
@@ -2795,7 +2998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A40">
         <v>82000</v>
       </c>
@@ -2833,7 +3036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A41">
         <v>54500</v>
       </c>
@@ -2871,7 +3074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A42">
         <v>66500</v>
       </c>
@@ -2909,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A43">
         <v>70000</v>
       </c>
@@ -2947,7 +3150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A44">
         <v>82000</v>
       </c>
@@ -2985,7 +3188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A45">
         <v>92000</v>
       </c>
@@ -3023,7 +3226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A46">
         <v>38000</v>
       </c>
@@ -3061,7 +3264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A47">
         <v>44000</v>
       </c>
@@ -3099,7 +3302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A48">
         <v>41000</v>
       </c>
@@ -3137,7 +3340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A49">
         <v>43000</v>
       </c>
@@ -3175,7 +3378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A50">
         <v>48000</v>
       </c>
@@ -3213,7 +3416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A51">
         <v>54800</v>
       </c>
@@ -3251,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A52">
         <v>55000</v>
       </c>
@@ -3289,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A53">
         <v>57000</v>
       </c>
@@ -3327,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A54">
         <v>68000</v>
       </c>
@@ -3365,7 +3568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A55">
         <v>95000</v>
       </c>
@@ -3403,7 +3606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A56">
         <v>38000</v>
       </c>
@@ -3441,7 +3644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A57">
         <v>25000</v>
       </c>
@@ -3479,7 +3682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A58">
         <v>25245</v>
       </c>
@@ -3517,7 +3720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A59">
         <v>56000</v>
       </c>
@@ -3555,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A60">
         <v>35500</v>
       </c>
@@ -3593,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A61">
         <v>30000</v>
       </c>
@@ -3631,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A62">
         <v>48000</v>
       </c>
@@ -3669,7 +3872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A63">
         <v>48000</v>
       </c>
@@ -3707,7 +3910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A64">
         <v>52000</v>
       </c>
@@ -3745,7 +3948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A65">
         <v>54000</v>
       </c>
@@ -3783,7 +3986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A66">
         <v>56000</v>
       </c>
@@ -3821,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A67">
         <v>60000</v>
       </c>
@@ -3859,7 +4062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A68">
         <v>60000</v>
       </c>
@@ -3897,7 +4100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A69">
         <v>67000</v>
       </c>
@@ -3935,7 +4138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A70">
         <v>47000</v>
       </c>
@@ -3973,7 +4176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A71">
         <v>70000</v>
       </c>
@@ -4011,7 +4214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A72">
         <v>45000</v>
       </c>
@@ -4049,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A73">
         <v>51000</v>
       </c>
@@ -4087,7 +4290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A74">
         <v>32500</v>
       </c>
@@ -4125,7 +4328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A75">
         <v>34000</v>
       </c>
@@ -4163,7 +4366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A76">
         <v>35000</v>
       </c>
@@ -4201,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A77">
         <v>36000</v>
       </c>
@@ -4239,7 +4442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A78">
         <v>45000</v>
       </c>
@@ -4277,7 +4480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A79">
         <v>47000</v>
       </c>
@@ -4315,7 +4518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A80">
         <v>55000</v>
       </c>
@@ -4353,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A81">
         <v>63900</v>
       </c>
@@ -4391,7 +4594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A82">
         <v>50000</v>
       </c>
@@ -4429,7 +4632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A83">
         <v>35000</v>
       </c>
@@ -4467,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A84">
         <v>50000</v>
       </c>
@@ -4505,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A85">
         <v>43000</v>
       </c>
@@ -4543,7 +4746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A86">
         <v>55500</v>
       </c>
@@ -4581,7 +4784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A87">
         <v>57000</v>
       </c>
@@ -4619,7 +4822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A88">
         <v>60000</v>
       </c>
@@ -4657,7 +4860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A89">
         <v>78000</v>
       </c>
@@ -4695,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A90">
         <v>35000</v>
       </c>
@@ -4733,7 +4936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A91">
         <v>44000</v>
       </c>
@@ -4771,7 +4974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A92">
         <v>47000</v>
       </c>
@@ -4809,7 +5012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A93">
         <v>58000</v>
       </c>
@@ -4847,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A94">
         <v>163000</v>
       </c>
@@ -4885,7 +5088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A95">
         <v>128000</v>
       </c>
@@ -4923,7 +5126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A96">
         <v>123500</v>
       </c>
@@ -4961,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A97">
         <v>39000</v>
       </c>
@@ -4999,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A98">
         <v>53900</v>
       </c>
@@ -5037,7 +5240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A99">
         <v>59900</v>
       </c>
@@ -5075,7 +5278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A100">
         <v>35000</v>
       </c>
@@ -5113,7 +5316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A101">
         <v>43000</v>
       </c>
@@ -5151,7 +5354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A102">
         <v>57000</v>
       </c>
@@ -5189,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A103">
         <v>79000</v>
       </c>
@@ -5227,7 +5430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A104">
         <v>125000</v>
       </c>
@@ -5265,7 +5468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A105">
         <v>132000</v>
       </c>
@@ -5303,7 +5506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A106">
         <v>58000</v>
       </c>
@@ -5341,7 +5544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A107">
         <v>43000</v>
       </c>
@@ -5379,7 +5582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A108">
         <v>48000</v>
       </c>
@@ -5417,7 +5620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A109">
         <v>58500</v>
       </c>
@@ -5455,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A110">
         <v>73000</v>
       </c>
@@ -5493,7 +5696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A111">
         <v>63500</v>
       </c>
@@ -5531,7 +5734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A112">
         <v>43000</v>
       </c>
@@ -5569,7 +5772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A113">
         <v>46500</v>
       </c>
@@ -5607,7 +5810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A114">
         <v>92000</v>
       </c>
@@ -5645,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A115">
         <v>75000</v>
       </c>
@@ -5683,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A116">
         <v>75000</v>
       </c>
@@ -5721,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A117">
         <v>85000</v>
       </c>
@@ -5759,7 +5962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A118">
         <v>93000</v>
       </c>
@@ -5797,7 +6000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A119">
         <v>94500</v>
       </c>
@@ -5835,7 +6038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A120">
         <v>106500</v>
       </c>
@@ -5873,7 +6076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A121">
         <v>116000</v>
       </c>
@@ -5911,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A122">
         <v>61500</v>
       </c>
@@ -5949,7 +6152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A123">
         <v>80000</v>
       </c>
@@ -5987,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A124">
         <v>37000</v>
       </c>
@@ -6025,7 +6228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A125">
         <v>59500</v>
       </c>
@@ -6063,7 +6266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A126">
         <v>70000</v>
       </c>
@@ -6101,7 +6304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A127">
         <v>95000</v>
       </c>
@@ -6139,7 +6342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A128">
         <v>117000</v>
       </c>
@@ -6177,7 +6380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A129">
         <v>122500</v>
       </c>
@@ -6215,7 +6418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A130">
         <v>123500</v>
       </c>
@@ -6253,7 +6456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A131">
         <v>127000</v>
       </c>
@@ -6291,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A132">
         <v>35000</v>
       </c>
@@ -6329,7 +6532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A133">
         <v>44500</v>
       </c>
@@ -6367,7 +6570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A134">
         <v>49900</v>
       </c>
@@ -6405,7 +6608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A135">
         <v>50500</v>
       </c>
@@ -6443,7 +6646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A136">
         <v>65000</v>
       </c>
@@ -6481,7 +6684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A137">
         <v>90000</v>
       </c>
@@ -6519,7 +6722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A138">
         <v>46000</v>
       </c>
@@ -6557,7 +6760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A139">
         <v>35000</v>
       </c>
@@ -6595,7 +6798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A140">
         <v>26500</v>
       </c>
@@ -6633,7 +6836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A141">
         <v>43000</v>
       </c>
@@ -6671,7 +6874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A142">
         <v>56000</v>
       </c>
@@ -6709,7 +6912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A143">
         <v>40000</v>
       </c>
@@ -6747,7 +6950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A144">
         <v>51000</v>
       </c>
@@ -6785,7 +6988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A145">
         <v>51000</v>
       </c>
@@ -6823,7 +7026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A146">
         <v>57250</v>
       </c>
@@ -6861,7 +7064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A147">
         <v>44000</v>
       </c>
@@ -6899,7 +7102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A148">
         <v>61000</v>
       </c>
@@ -6937,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A149">
         <v>62000</v>
       </c>
@@ -6975,7 +7178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A150">
         <v>80000</v>
       </c>
@@ -7013,7 +7216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A151">
         <v>50000</v>
       </c>
@@ -7051,7 +7254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A152">
         <v>59900</v>
       </c>
@@ -7089,7 +7292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A153">
         <v>35500</v>
       </c>
@@ -7127,7 +7330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A154">
         <v>37000</v>
       </c>
@@ -7165,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A155">
         <v>42000</v>
       </c>
@@ -7203,7 +7406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A156">
         <v>48000</v>
       </c>
@@ -7241,7 +7444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A157">
         <v>60000</v>
       </c>
@@ -7279,7 +7482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A158">
         <v>60000</v>
       </c>
@@ -7317,7 +7520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A159">
         <v>60000</v>
       </c>
@@ -7355,7 +7558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A160">
         <v>62000</v>
       </c>
@@ -7393,7 +7596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A161">
         <v>63000</v>
       </c>
@@ -7431,7 +7634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A162">
         <v>63900</v>
       </c>
@@ -7469,7 +7672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A163">
         <v>130000</v>
       </c>
@@ -7507,7 +7710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A164">
         <v>25000</v>
       </c>
@@ -7545,7 +7748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A165">
         <v>50000</v>
       </c>
@@ -7583,7 +7786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A166">
         <v>52900</v>
       </c>
@@ -7621,7 +7824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A167">
         <v>62000</v>
       </c>
@@ -7659,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A168">
         <v>73500</v>
       </c>
@@ -7697,7 +7900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A169">
         <v>38000</v>
       </c>
@@ -7735,7 +7938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A170">
         <v>46000</v>
       </c>
@@ -7773,7 +7976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A171">
         <v>48000</v>
       </c>
@@ -7811,7 +8014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A172">
         <v>52500</v>
       </c>
@@ -7849,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A173">
         <v>32000</v>
       </c>
@@ -7887,7 +8090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A174">
         <v>38000</v>
       </c>
@@ -7925,7 +8128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A175">
         <v>46000</v>
       </c>
@@ -7963,7 +8166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A176">
         <v>50000</v>
       </c>
@@ -8001,7 +8204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A177">
         <v>57500</v>
       </c>
@@ -8039,7 +8242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A178">
         <v>70000</v>
       </c>
@@ -8077,7 +8280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A179">
         <v>69900</v>
       </c>
@@ -8115,7 +8318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A180">
         <v>74500</v>
       </c>
@@ -8153,7 +8356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A181">
         <v>42000</v>
       </c>
@@ -8191,7 +8394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A182">
         <v>60000</v>
       </c>
@@ -8229,7 +8432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A183">
         <v>50000</v>
       </c>
@@ -8267,7 +8470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A184">
         <v>58000</v>
       </c>
@@ -8305,7 +8508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A185">
         <v>63900</v>
       </c>
@@ -8343,7 +8546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A186">
         <v>28000</v>
       </c>
@@ -8381,7 +8584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A187">
         <v>54000</v>
       </c>
@@ -8419,7 +8622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A188">
         <v>44700</v>
       </c>
@@ -8457,7 +8660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A189">
         <v>47000</v>
       </c>
@@ -8495,7 +8698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A190">
         <v>50000</v>
       </c>
@@ -8533,7 +8736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A191">
         <v>57250</v>
       </c>
@@ -8571,7 +8774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A192">
         <v>67000</v>
       </c>
@@ -8609,7 +8812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A193">
         <v>52500</v>
       </c>
@@ -8647,7 +8850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A194">
         <v>42000</v>
       </c>
@@ -8685,7 +8888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A195">
         <v>57500</v>
       </c>
@@ -8723,7 +8926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A196">
         <v>33000</v>
       </c>
@@ -8761,7 +8964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A197">
         <v>34400</v>
       </c>
@@ -8799,7 +9002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A198">
         <v>40000</v>
       </c>
@@ -8837,7 +9040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A199">
         <v>40500</v>
       </c>
@@ -8875,7 +9078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A200">
         <v>46500</v>
       </c>
@@ -8913,7 +9116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A201">
         <v>52000</v>
       </c>
@@ -8951,7 +9154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A202">
         <v>53000</v>
       </c>
@@ -8989,7 +9192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A203">
         <v>53900</v>
       </c>
@@ -9027,7 +9230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A204">
         <v>50000</v>
       </c>
@@ -9065,7 +9268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A205">
         <v>55500</v>
       </c>
@@ -9103,7 +9306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A206">
         <v>56000</v>
       </c>
@@ -9141,7 +9344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A207">
         <v>60000</v>
       </c>
@@ -9179,7 +9382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A208">
         <v>60000</v>
       </c>
@@ -9217,7 +9420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A209">
         <v>69500</v>
       </c>
@@ -9255,7 +9458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A210">
         <v>72000</v>
       </c>
@@ -9293,7 +9496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A211">
         <v>92500</v>
       </c>
@@ -9331,7 +9534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A212">
         <v>40500</v>
       </c>
@@ -9369,7 +9572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A213">
         <v>42000</v>
       </c>
@@ -9407,7 +9610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A214">
         <v>47900</v>
       </c>
@@ -9445,7 +9648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A215">
         <v>52000</v>
       </c>
@@ -9483,7 +9686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A216">
         <v>62000</v>
       </c>
@@ -9521,7 +9724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A217">
         <v>41000</v>
       </c>
@@ -9559,7 +9762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A218">
         <v>138300</v>
       </c>
@@ -9597,7 +9800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A219">
         <v>42000</v>
       </c>
@@ -9635,7 +9838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A220">
         <v>47000</v>
       </c>
@@ -9673,7 +9876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A221">
         <v>64500</v>
       </c>
@@ -9711,7 +9914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A222">
         <v>46000</v>
       </c>
@@ -9749,7 +9952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A223">
         <v>58000</v>
       </c>
@@ -9787,7 +9990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A224">
         <v>70100</v>
       </c>
@@ -9825,7 +10028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A225">
         <v>78500</v>
       </c>
@@ -9863,7 +10066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A226">
         <v>87250</v>
       </c>
@@ -9901,7 +10104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A227">
         <v>70800</v>
       </c>
@@ -9939,7 +10142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A228">
         <v>56000</v>
       </c>
@@ -9977,7 +10180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A229">
         <v>48000</v>
       </c>
@@ -10015,7 +10218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A230">
         <v>68000</v>
       </c>
@@ -10053,7 +10256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A231">
         <v>79000</v>
       </c>
@@ -10091,7 +10294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A232">
         <v>80000</v>
       </c>
@@ -10129,7 +10332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A233">
         <v>87000</v>
       </c>
@@ -10167,7 +10370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A234">
         <v>25000</v>
       </c>
@@ -10205,7 +10408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A235">
         <v>32500</v>
       </c>
@@ -10243,7 +10446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A236">
         <v>36000</v>
       </c>
@@ -10281,7 +10484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A237">
         <v>42500</v>
       </c>
@@ -10319,7 +10522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A238">
         <v>43000</v>
       </c>
@@ -10357,7 +10560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A239">
         <v>50000</v>
       </c>
@@ -10395,7 +10598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A240">
         <v>26000</v>
       </c>
@@ -10433,7 +10636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A241">
         <v>30000</v>
       </c>
@@ -10471,7 +10674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A242">
         <v>34000</v>
       </c>
@@ -10509,7 +10712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A243">
         <v>52000</v>
       </c>
@@ -10547,7 +10750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A244">
         <v>70000</v>
       </c>
@@ -10585,7 +10788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A245">
         <v>27000</v>
       </c>
@@ -10623,7 +10826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A246">
         <v>32500</v>
       </c>
@@ -10661,7 +10864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A247">
         <v>37200</v>
       </c>
@@ -10699,7 +10902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A248">
         <v>38000</v>
       </c>
@@ -10737,7 +10940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A249">
         <v>42000</v>
       </c>
@@ -10775,7 +10978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A250">
         <v>44500</v>
       </c>
@@ -10813,7 +11016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A251">
         <v>45000</v>
       </c>
@@ -10851,7 +11054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A252">
         <v>48500</v>
       </c>
@@ -10889,7 +11092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A253">
         <v>52000</v>
       </c>
@@ -10927,7 +11130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A254">
         <v>53900</v>
       </c>
@@ -10965,7 +11168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A255">
         <v>60000</v>
       </c>
@@ -11003,7 +11206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A256">
         <v>61000</v>
       </c>
@@ -11041,7 +11244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A257">
         <v>64500</v>
       </c>
@@ -11079,7 +11282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A258">
         <v>71000</v>
       </c>
@@ -11117,7 +11320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A259">
         <v>75500</v>
       </c>
@@ -11155,7 +11358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A260">
         <v>33500</v>
       </c>
@@ -11193,7 +11396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A261">
         <v>41000</v>
       </c>
@@ -11231,7 +11434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A262">
         <v>41000</v>
       </c>
@@ -11269,7 +11472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A263">
         <v>46200</v>
       </c>
@@ -11307,7 +11510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A264">
         <v>48500</v>
       </c>
@@ -11345,7 +11548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A265">
         <v>48900</v>
       </c>
@@ -11383,7 +11586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A266">
         <v>50000</v>
       </c>
@@ -11421,7 +11624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A267">
         <v>51000</v>
       </c>
@@ -11459,7 +11662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A268">
         <v>52500</v>
       </c>
@@ -11497,7 +11700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A269">
         <v>52500</v>
       </c>
@@ -11535,7 +11738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A270">
         <v>54000</v>
       </c>
@@ -11573,7 +11776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A271">
         <v>59000</v>
       </c>
@@ -11611,7 +11814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A272">
         <v>60000</v>
       </c>
@@ -11649,7 +11852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A273">
         <v>63000</v>
       </c>
@@ -11687,7 +11890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A274">
         <v>64000</v>
       </c>
@@ -11725,7 +11928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A275">
         <v>64900</v>
       </c>
@@ -11763,7 +11966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A276">
         <v>65000</v>
       </c>
@@ -11801,7 +12004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A277">
         <v>66000</v>
       </c>
@@ -11839,7 +12042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A278">
         <v>70000</v>
       </c>
@@ -11877,7 +12080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A279">
         <v>65500</v>
       </c>
@@ -11915,7 +12118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A280">
         <v>57000</v>
       </c>
@@ -11953,7 +12156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A281">
         <v>52000</v>
       </c>
@@ -11991,7 +12194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A282">
         <v>54000</v>
       </c>
@@ -12029,7 +12232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A283">
         <v>74500</v>
       </c>
@@ -12067,7 +12270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A284">
         <v>90000</v>
       </c>
@@ -12105,7 +12308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A285">
         <v>45000</v>
       </c>
@@ -12143,7 +12346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A286">
         <v>45000</v>
       </c>
@@ -12181,7 +12384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A287">
         <v>65000</v>
       </c>
@@ -12219,7 +12422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A288">
         <v>55000</v>
       </c>
@@ -12257,7 +12460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A289">
         <v>62000</v>
       </c>
@@ -12295,7 +12498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A290">
         <v>30000</v>
       </c>
@@ -12333,7 +12536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A291">
         <v>34000</v>
       </c>
@@ -12371,7 +12574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A292">
         <v>38000</v>
       </c>
@@ -12409,7 +12612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A293">
         <v>39000</v>
       </c>
@@ -12447,7 +12650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A294">
         <v>45000</v>
       </c>
@@ -12485,7 +12688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A295">
         <v>47000</v>
       </c>
@@ -12523,7 +12726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A296">
         <v>47500</v>
       </c>
@@ -12561,7 +12764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A297">
         <v>49000</v>
       </c>
@@ -12599,7 +12802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A298">
         <v>50000</v>
       </c>
@@ -12637,7 +12840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A299">
         <v>50000</v>
       </c>
@@ -12675,7 +12878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A300">
         <v>52900</v>
       </c>
@@ -12713,7 +12916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A301">
         <v>53000</v>
       </c>
@@ -12751,7 +12954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A302">
         <v>55000</v>
       </c>
@@ -12789,7 +12992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A303">
         <v>56000</v>
       </c>
@@ -12827,7 +13030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A304">
         <v>58500</v>
       </c>
@@ -12865,7 +13068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A305">
         <v>59500</v>
       </c>
@@ -12903,7 +13106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A306">
         <v>60000</v>
       </c>
@@ -12941,7 +13144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A307">
         <v>64000</v>
       </c>
@@ -12979,7 +13182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A308">
         <v>67000</v>
       </c>
@@ -13017,7 +13220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A309">
         <v>68100</v>
       </c>
@@ -13055,7 +13258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A310">
         <v>70000</v>
       </c>
@@ -13093,7 +13296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A311">
         <v>72000</v>
       </c>
@@ -13131,7 +13334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A312">
         <v>57500</v>
       </c>
@@ -13169,7 +13372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A313">
         <v>69900</v>
       </c>
@@ -13207,7 +13410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A314">
         <v>70000</v>
       </c>
@@ -13245,7 +13448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A315">
         <v>75000</v>
       </c>
@@ -13283,7 +13486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A316">
         <v>76900</v>
       </c>
@@ -13321,7 +13524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A317">
         <v>78000</v>
       </c>
@@ -13359,7 +13562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A318">
         <v>80000</v>
       </c>
@@ -13397,7 +13600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A319">
         <v>82000</v>
       </c>
@@ -13435,7 +13638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A320">
         <v>83000</v>
       </c>
@@ -13473,7 +13676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A321">
         <v>83000</v>
       </c>
@@ -13511,7 +13714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A322">
         <v>83900</v>
       </c>
@@ -13549,7 +13752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A323">
         <v>88500</v>
       </c>
@@ -13587,7 +13790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A324">
         <v>93000</v>
       </c>
@@ -13625,7 +13828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A325">
         <v>98000</v>
       </c>
@@ -13663,7 +13866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A326">
         <v>98500</v>
       </c>
@@ -13701,7 +13904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A327">
         <v>99000</v>
       </c>
@@ -13739,7 +13942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A328">
         <v>101000</v>
       </c>
@@ -13777,7 +13980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A329">
         <v>110000</v>
       </c>
@@ -13815,7 +14018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A330">
         <v>115442</v>
       </c>
@@ -13853,7 +14056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A331">
         <v>120000</v>
       </c>
@@ -13891,7 +14094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A332">
         <v>124000</v>
       </c>
@@ -13929,7 +14132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A333">
         <v>175000</v>
       </c>
@@ -13967,7 +14170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A334">
         <v>50000</v>
       </c>
@@ -14005,7 +14208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A335">
         <v>55000</v>
       </c>
@@ -14043,7 +14246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A336">
         <v>60000</v>
       </c>
@@ -14081,7 +14284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A337">
         <v>61000</v>
       </c>
@@ -14119,7 +14322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A338">
         <v>106000</v>
       </c>
@@ -14157,7 +14360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A339">
         <v>155000</v>
       </c>
@@ -14195,7 +14398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A340">
         <v>141000</v>
       </c>
@@ -14233,7 +14436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A341">
         <v>62500</v>
       </c>
@@ -14271,7 +14474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A342">
         <v>70000</v>
       </c>
@@ -14309,7 +14512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A343">
         <v>73000</v>
       </c>
@@ -14347,7 +14550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A344">
         <v>80000</v>
       </c>
@@ -14385,7 +14588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A345">
         <v>80000</v>
       </c>
@@ -14423,7 +14626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A346">
         <v>88000</v>
       </c>
@@ -14461,7 +14664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A347">
         <v>49000</v>
       </c>
@@ -14499,7 +14702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A348">
         <v>52000</v>
       </c>
@@ -14537,7 +14740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A349">
         <v>59500</v>
       </c>
@@ -14575,7 +14778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A350">
         <v>60000</v>
       </c>
@@ -14613,7 +14816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A351">
         <v>64000</v>
       </c>
@@ -14651,7 +14854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A352">
         <v>64500</v>
       </c>
@@ -14689,7 +14892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A353">
         <v>68500</v>
       </c>
@@ -14727,7 +14930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A354">
         <v>78500</v>
       </c>
@@ -14765,7 +14968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A355">
         <v>86000</v>
       </c>
@@ -14803,7 +15006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A356">
         <v>86900</v>
       </c>
@@ -14841,7 +15044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A357">
         <v>75000</v>
       </c>
@@ -14879,7 +15082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A358">
         <v>78000</v>
       </c>
@@ -14917,7 +15120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A359">
         <v>95000</v>
       </c>
@@ -14955,7 +15158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A360">
         <v>97000</v>
       </c>
@@ -14993,7 +15196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A361">
         <v>107000</v>
       </c>
@@ -15031,7 +15234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A362">
         <v>130000</v>
       </c>
@@ -15069,7 +15272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A363">
         <v>145000</v>
       </c>
@@ -15107,7 +15310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A364">
         <v>175000</v>
       </c>
@@ -15145,7 +15348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A365">
         <v>72000</v>
       </c>
@@ -15183,7 +15386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A366">
         <v>84900</v>
       </c>
@@ -15221,7 +15424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A367">
         <v>99000</v>
       </c>
@@ -15259,7 +15462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A368">
         <v>114000</v>
       </c>
@@ -15297,7 +15500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A369">
         <v>120000</v>
       </c>
@@ -15335,7 +15538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A370">
         <v>145000</v>
       </c>
@@ -15373,7 +15576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A371">
         <v>79000</v>
       </c>
@@ -15411,7 +15614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A372">
         <v>82000</v>
       </c>
@@ -15449,7 +15652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A373">
         <v>85000</v>
       </c>
@@ -15487,7 +15690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A374">
         <v>100500</v>
       </c>
@@ -15525,7 +15728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A375">
         <v>122000</v>
       </c>
@@ -15563,7 +15766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A376">
         <v>126500</v>
       </c>
@@ -15601,7 +15804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A377">
         <v>133000</v>
       </c>
@@ -15639,7 +15842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A378">
         <v>140000</v>
       </c>
@@ -15677,7 +15880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A379">
         <v>190000</v>
       </c>
@@ -15715,7 +15918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A380">
         <v>84000</v>
       </c>
@@ -15753,7 +15956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A381">
         <v>97000</v>
       </c>
@@ -15791,7 +15994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A382">
         <v>103500</v>
       </c>
@@ -15829,7 +16032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A383">
         <v>112500</v>
       </c>
@@ -15867,7 +16070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A384">
         <v>140000</v>
       </c>
@@ -15905,7 +16108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A385">
         <v>74700</v>
       </c>
@@ -15943,7 +16146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A386">
         <v>78000</v>
       </c>
@@ -15981,7 +16184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A387">
         <v>78900</v>
       </c>
@@ -16019,7 +16222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A388">
         <v>83900</v>
       </c>
@@ -16057,7 +16260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A389">
         <v>85000</v>
       </c>
@@ -16095,7 +16298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A390">
         <v>85000</v>
       </c>
@@ -16133,7 +16336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A391">
         <v>86000</v>
       </c>
@@ -16171,7 +16374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A392">
         <v>86900</v>
       </c>
@@ -16209,7 +16412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A393">
         <v>94500</v>
       </c>
@@ -16247,7 +16450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A394">
         <v>96000</v>
       </c>
@@ -16285,7 +16488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A395">
         <v>106000</v>
       </c>
@@ -16323,7 +16526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A396">
         <v>72000</v>
       </c>
@@ -16361,7 +16564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A397">
         <v>74500</v>
       </c>
@@ -16399,7 +16602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A398">
         <v>77000</v>
       </c>
@@ -16437,7 +16640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A399">
         <v>80750</v>
       </c>
@@ -16475,7 +16678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A400">
         <v>82900</v>
       </c>
@@ -16513,7 +16716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A401">
         <v>85000</v>
       </c>
@@ -16551,7 +16754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A402">
         <v>92500</v>
       </c>
@@ -16589,7 +16792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A403">
         <v>76000</v>
       </c>
@@ -16627,7 +16830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A404">
         <v>77500</v>
       </c>
@@ -16665,7 +16868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A405">
         <v>80000</v>
       </c>
@@ -16703,7 +16906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A406">
         <v>80000</v>
       </c>
@@ -16741,7 +16944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A407">
         <v>86000</v>
       </c>
@@ -16779,7 +16982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A408">
         <v>87000</v>
       </c>
@@ -16817,7 +17020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A409">
         <v>87500</v>
       </c>
@@ -16855,7 +17058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A410">
         <v>89000</v>
       </c>
@@ -16893,7 +17096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A411">
         <v>89900</v>
       </c>
@@ -16931,7 +17134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A412">
         <v>90000</v>
       </c>
@@ -16969,7 +17172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A413">
         <v>95000</v>
       </c>
@@ -17007,7 +17210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A414">
         <v>112000</v>
       </c>
@@ -17045,7 +17248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A415">
         <v>31900</v>
       </c>
@@ -17083,7 +17286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A416">
         <v>52000</v>
       </c>
@@ -17121,7 +17324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A417">
         <v>90000</v>
       </c>
@@ -17159,7 +17362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A418">
         <v>100000</v>
       </c>
@@ -17197,7 +17400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A419">
         <v>91700</v>
       </c>
@@ -17235,7 +17438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A420">
         <v>174500</v>
       </c>
@@ -17273,7 +17476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A421">
         <v>94700</v>
       </c>
@@ -17311,7 +17514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A422">
         <v>68000</v>
       </c>
@@ -17349,7 +17552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A423">
         <v>80000</v>
       </c>
@@ -17387,7 +17590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A424">
         <v>61100</v>
       </c>
@@ -17425,7 +17628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A425">
         <v>62900</v>
       </c>
@@ -17463,7 +17666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A426">
         <v>65500</v>
       </c>
@@ -17501,7 +17704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A427">
         <v>66000</v>
       </c>
@@ -17539,7 +17742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A428">
         <v>49500</v>
       </c>
@@ -17577,7 +17780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A429">
         <v>50000</v>
       </c>
@@ -17615,7 +17818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A430">
         <v>53500</v>
       </c>
@@ -17653,7 +17856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A431">
         <v>58550</v>
       </c>
@@ -17691,7 +17894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A432">
         <v>64500</v>
       </c>
@@ -17729,7 +17932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A433">
         <v>65000</v>
       </c>
@@ -17767,7 +17970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A434">
         <v>69000</v>
       </c>
@@ -17805,7 +18008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A435">
         <v>73000</v>
       </c>
@@ -17843,7 +18046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A436">
         <v>75000</v>
       </c>
@@ -17881,7 +18084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A437">
         <v>75000</v>
       </c>
@@ -17919,7 +18122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A438">
         <v>132000</v>
       </c>
@@ -17957,7 +18160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A439">
         <v>60000</v>
       </c>
@@ -17995,7 +18198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A440">
         <v>65000</v>
       </c>
@@ -18033,7 +18236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A441">
         <v>69000</v>
       </c>
@@ -18071,7 +18274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A442">
         <v>51900</v>
       </c>
@@ -18109,7 +18312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A443">
         <v>57000</v>
       </c>
@@ -18147,7 +18350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A444">
         <v>65000</v>
       </c>
@@ -18185,7 +18388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A445">
         <v>79500</v>
       </c>
@@ -18223,7 +18426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A446">
         <v>72500</v>
       </c>
@@ -18261,7 +18464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A447">
         <v>104900</v>
       </c>
@@ -18299,7 +18502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A448">
         <v>114900</v>
       </c>
@@ -18337,7 +18540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A449">
         <v>120000</v>
       </c>
@@ -18375,7 +18578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A450">
         <v>58000</v>
       </c>
@@ -18413,7 +18616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A451">
         <v>67000</v>
       </c>
@@ -18451,7 +18654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A452">
         <v>67000</v>
       </c>
@@ -18489,7 +18692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A453">
         <v>69000</v>
       </c>
@@ -18527,7 +18730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A454">
         <v>73000</v>
       </c>
@@ -18565,7 +18768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A455">
         <v>73500</v>
       </c>
@@ -18603,7 +18806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A456">
         <v>74900</v>
       </c>
@@ -18641,7 +18844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A457">
         <v>75000</v>
       </c>
@@ -18679,7 +18882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A458">
         <v>79500</v>
       </c>
@@ -18717,7 +18920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A459">
         <v>120900</v>
       </c>
@@ -18755,7 +18958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A460">
         <v>44555</v>
       </c>
@@ -18793,7 +18996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A461">
         <v>47000</v>
       </c>
@@ -18831,7 +19034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A462">
         <v>47600</v>
       </c>
@@ -18869,7 +19072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A463">
         <v>49000</v>
       </c>
@@ -18907,7 +19110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A464">
         <v>49000</v>
       </c>
@@ -18945,7 +19148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A465">
         <v>49000</v>
       </c>
@@ -18983,7 +19186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A466">
         <v>49500</v>
       </c>
@@ -19021,7 +19224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A467">
         <v>52000</v>
       </c>
@@ -19059,7 +19262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A468">
         <v>54000</v>
       </c>
@@ -19097,7 +19300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A469">
         <v>55000</v>
       </c>
@@ -19135,7 +19338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A470">
         <v>55000</v>
       </c>
@@ -19173,7 +19376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A471">
         <v>56000</v>
       </c>
@@ -19211,7 +19414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A472">
         <v>60000</v>
       </c>
@@ -19249,7 +19452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A473">
         <v>60500</v>
       </c>
@@ -19287,7 +19490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A474">
         <v>50000</v>
       </c>
@@ -19325,7 +19528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A475">
         <v>64900</v>
       </c>
@@ -19363,7 +19566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A476">
         <v>93000</v>
       </c>
@@ -19401,7 +19604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A477">
         <v>85000</v>
       </c>
@@ -19439,7 +19642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A478">
         <v>61500</v>
       </c>
@@ -19477,7 +19680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A479">
         <v>88500</v>
       </c>
@@ -19515,7 +19718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A480">
         <v>88000</v>
       </c>
@@ -19553,7 +19756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A481">
         <v>89000</v>
       </c>
@@ -19591,7 +19794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A482">
         <v>89500</v>
       </c>
@@ -19629,7 +19832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A483">
         <v>95000</v>
       </c>
@@ -19667,7 +19870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A484">
         <v>95500</v>
       </c>
@@ -19705,7 +19908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A485">
         <v>51500</v>
       </c>
@@ -19743,7 +19946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A486">
         <v>62900</v>
       </c>
@@ -19781,7 +19984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A487">
         <v>118500</v>
       </c>
@@ -19819,7 +20022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A488">
         <v>42900</v>
       </c>
@@ -19857,7 +20060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A489">
         <v>44100</v>
       </c>
@@ -19895,7 +20098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A490">
         <v>47000</v>
       </c>
@@ -19933,7 +20136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A491">
         <v>50000</v>
       </c>
@@ -19971,7 +20174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A492">
         <v>50000</v>
       </c>
@@ -20009,7 +20212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A493">
         <v>53000</v>
       </c>
@@ -20047,7 +20250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A494">
         <v>53000</v>
       </c>
@@ -20085,7 +20288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A495">
         <v>54000</v>
       </c>
@@ -20123,7 +20326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A496">
         <v>58500</v>
       </c>
@@ -20161,7 +20364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A497">
         <v>59000</v>
       </c>
@@ -20199,7 +20402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A498">
         <v>60000</v>
       </c>
@@ -20237,7 +20440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A499">
         <v>62900</v>
       </c>
@@ -20275,7 +20478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A500">
         <v>64000</v>
       </c>
@@ -20313,7 +20516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A501">
         <v>65000</v>
       </c>
@@ -20351,7 +20554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A502">
         <v>67900</v>
       </c>
@@ -20389,7 +20592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A503">
         <v>68500</v>
       </c>
@@ -20427,7 +20630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A504">
         <v>70000</v>
       </c>
@@ -20465,7 +20668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A505">
         <v>70500</v>
       </c>
@@ -20503,7 +20706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A506">
         <v>71500</v>
       </c>
@@ -20541,7 +20744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A507">
         <v>71900</v>
       </c>
@@ -20579,7 +20782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A508">
         <v>75000</v>
       </c>
@@ -20617,7 +20820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A509">
         <v>75000</v>
       </c>
@@ -20655,7 +20858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A510">
         <v>87000</v>
       </c>
@@ -20693,7 +20896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A511">
         <v>64000</v>
       </c>
@@ -20731,7 +20934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A512">
         <v>70000</v>
       </c>
@@ -20769,7 +20972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A513">
         <v>47500</v>
       </c>
@@ -20807,7 +21010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A514">
         <v>62600</v>
       </c>
@@ -20845,7 +21048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A515">
         <v>66000</v>
       </c>
@@ -20883,7 +21086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A516">
         <v>58900</v>
       </c>
@@ -20921,7 +21124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A517">
         <v>53000</v>
       </c>
@@ -20959,7 +21162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A518">
         <v>95000</v>
       </c>
@@ -20997,7 +21200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A519">
         <v>96500</v>
       </c>
@@ -21035,7 +21238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A520">
         <v>101000</v>
       </c>
@@ -21073,7 +21276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A521">
         <v>102000</v>
       </c>
@@ -21111,7 +21314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A522">
         <v>103000</v>
       </c>
@@ -21149,7 +21352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A523">
         <v>105000</v>
       </c>
@@ -21187,7 +21390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A524">
         <v>108000</v>
       </c>
@@ -21225,7 +21428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A525">
         <v>110000</v>
       </c>
@@ -21263,7 +21466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A526">
         <v>113000</v>
       </c>
@@ -21301,7 +21504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A527">
         <v>120000</v>
       </c>
@@ -21339,7 +21542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A528">
         <v>105000</v>
       </c>
@@ -21377,7 +21580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A529">
         <v>106000</v>
       </c>
@@ -21415,7 +21618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A530">
         <v>107500</v>
       </c>
@@ -21453,7 +21656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A531">
         <v>108000</v>
       </c>
@@ -21491,7 +21694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A532">
         <v>113750</v>
       </c>
@@ -21529,7 +21732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A533">
         <v>120000</v>
       </c>
@@ -21567,7 +21770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A534">
         <v>70000</v>
       </c>
@@ -21605,7 +21808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A535">
         <v>71000</v>
       </c>
@@ -21643,7 +21846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A536">
         <v>82000</v>
       </c>
@@ -21681,7 +21884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A537">
         <v>82000</v>
       </c>
@@ -21719,7 +21922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A538">
         <v>82500</v>
       </c>
@@ -21757,7 +21960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A539">
         <v>83000</v>
       </c>
@@ -21795,7 +21998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A540">
         <v>84000</v>
       </c>
@@ -21833,7 +22036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A541">
         <v>85000</v>
       </c>
@@ -21871,7 +22074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A542">
         <v>85000</v>
       </c>
@@ -21909,7 +22112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A543">
         <v>91500</v>
       </c>
@@ -21947,7 +22150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A544">
         <v>94000</v>
       </c>
@@ -21985,7 +22188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A545">
         <v>103000</v>
       </c>
@@ -22023,7 +22226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A546">
         <v>105000</v>
       </c>
@@ -22061,7 +22264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A547">
         <v>105000</v>
       </c>
@@ -22108,26 +22311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22370,26 +22553,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22406,4 +22590,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5-frequency-tables/5-frequency-tables.xlsx
+++ b/5-frequency-tables/5-frequency-tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19871150-D7EB-4226-946E-BDB166CFA91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AE5CE-6C57-40DB-9C17-892EA0DA1E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,21 +89,6 @@
   <pythonScripts>
     <pythonScript>
       <code>housing_df = xl(%P2%, headers=True)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>housing_df['stories'].value_counts()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>housing_df['stories'].value_counts(normalize=True).sort_values(ascending=False)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>price_bins = [0, 40000, 70000, 100000, 150000, float('inf')]
-price_labels = ['Low', 'Moderate', 'Mid-High', 'High', 'Luxury']
-housing_df['price_range'] = pd.cut(housing_df['price'], bins=price_bins, labels=price_labels)
-housing_df['price_range'].value_counts()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>pd.crosstab(housing_df['stories'], housing_df['driveway'], normalize='all', margins=True)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -1315,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
@@ -1325,7 +1310,7 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.73046875" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.4296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.9">
@@ -1445,13 +1430,6 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3:O7">_xlfn._xlws.PY(1,0)</f>
-        <v>stories</v>
-      </c>
-      <c r="O3" t="str">
-        <v>count</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A4">
@@ -1490,12 +1468,6 @@
       <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>238</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A5">
@@ -1534,12 +1506,6 @@
       <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>227</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A6">
@@ -1578,12 +1544,6 @@
       <c r="L6" t="s">
         <v>13</v>
       </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A7">
@@ -1622,12 +1582,6 @@
       <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A8">
@@ -1704,13 +1658,7 @@
       <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9:O13">_xlfn._xlws.PY(2,0)</f>
-        <v>stories</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <v>proportion</v>
-      </c>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A10">
@@ -1749,12 +1697,7 @@
       <c r="L10" t="s">
         <v>13</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.4358974358974359</v>
-      </c>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A11">
@@ -1793,12 +1736,7 @@
       <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.41575091575091577</v>
-      </c>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A12">
@@ -1837,12 +1775,7 @@
       <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>7.5091575091575088E-2</v>
-      </c>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A13">
@@ -1881,12 +1814,7 @@
       <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>7.3260073260073263E-2</v>
-      </c>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A14">
@@ -1963,13 +1891,6 @@
       <c r="L15" t="s">
         <v>13</v>
       </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15:O20">_xlfn._xlws.PY(3,0)</f>
-        <v>price_range</v>
-      </c>
-      <c r="O15" t="str">
-        <v>count</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.9">
       <c r="A16">
@@ -2008,12 +1929,6 @@
       <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="N16" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="O16">
-        <v>292</v>
-      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A17">
@@ -2052,12 +1967,6 @@
       <c r="L17" t="s">
         <v>13</v>
       </c>
-      <c r="N17" t="str">
-        <v>Mid-High</v>
-      </c>
-      <c r="O17">
-        <v>137</v>
-      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A18">
@@ -2096,12 +2005,6 @@
       <c r="L18" t="s">
         <v>13</v>
       </c>
-      <c r="N18" t="str">
-        <v>High</v>
-      </c>
-      <c r="O18">
-        <v>58</v>
-      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A19">
@@ -2140,12 +2043,6 @@
       <c r="L19" t="s">
         <v>13</v>
       </c>
-      <c r="N19" t="str">
-        <v>Low</v>
-      </c>
-      <c r="O19">
-        <v>53</v>
-      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A20">
@@ -2184,12 +2081,6 @@
       <c r="L20" t="s">
         <v>13</v>
       </c>
-      <c r="N20" t="str">
-        <v>Luxury</v>
-      </c>
-      <c r="O20">
-        <v>6</v>
-      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A21">
@@ -2266,19 +2157,9 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-      <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22:Q28">_xlfn._xlws.PY(4,0)</f>
-        <v>driveway</v>
-      </c>
-      <c r="O22" s="2" t="str">
-        <v>no</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <v>All</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A23">
@@ -2317,18 +2198,9 @@
       <c r="L23" t="s">
         <v>13</v>
       </c>
-      <c r="N23" t="str">
-        <v>stories</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <v/>
-      </c>
-      <c r="P23" s="2" t="str">
-        <v/>
-      </c>
-      <c r="Q23" s="2" t="str">
-        <v/>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A24">
@@ -2367,18 +2239,9 @@
       <c r="L24" t="s">
         <v>13</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>6.7765567765567761E-2</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0.34798534798534797</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.41575091575091577</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A25">
@@ -2417,18 +2280,9 @@
       <c r="L25" t="s">
         <v>13</v>
       </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25" s="2">
-        <v>6.95970695970696E-2</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.36630036630036628</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.4358974358974359</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A26">
@@ -2467,18 +2321,9 @@
       <c r="L26" t="s">
         <v>13</v>
       </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26" s="2">
-        <v>3.663003663003663E-3</v>
-      </c>
-      <c r="P26" s="2">
-        <v>6.95970695970696E-2</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>7.3260073260073263E-2</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A27">
@@ -2517,18 +2362,9 @@
       <c r="L27" t="s">
         <v>13</v>
       </c>
-      <c r="N27">
-        <v>4</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>7.5091575091575088E-2</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>7.5091575091575088E-2</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A28">
@@ -2567,18 +2403,9 @@
       <c r="L28" t="s">
         <v>13</v>
       </c>
-      <c r="N28" t="str">
-        <v>All</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.14102564102564102</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.85897435897435892</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>1</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A29">
@@ -22311,6 +22138,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22553,27 +22400,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22590,23 +22436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>